--- a/advanced-fighting-fantasy/checklist.xlsx
+++ b/advanced-fighting-fantasy/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/advanced-fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C081ED71-D23A-964C-B73B-F365EE0B2172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4D7CA-B741-7640-AAA6-D33B31999ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CFF89FED-A798-6846-A7D7-293D358A7A43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>year</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Shakaishisosha</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE7055-EA3A-6447-9904-F0BACDCA9F38}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +482,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +498,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -503,8 +518,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -520,8 +538,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1986</v>
       </c>
@@ -537,8 +558,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -554,8 +578,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -570,6 +597,9 @@
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/advanced-fighting-fantasy/checklist.xlsx
+++ b/advanced-fighting-fantasy/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/advanced-fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4D7CA-B741-7640-AAA6-D33B31999ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C5A91C-F1E8-1A4E-B0F0-3277B07A1E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CFF89FED-A798-6846-A7D7-293D358A7A43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>year</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>タイタンふたたび—アドバンスト・ファイティング・ファンタジー・RPGリプレイ集</t>
+  </si>
+  <si>
+    <t>Titan Returns: Advanced Fighting Fantasy RPG Replay Collection</t>
+  </si>
+  <si>
+    <t>titan_returns.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
   </si>
 </sst>
 </file>
@@ -468,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE7055-EA3A-6447-9904-F0BACDCA9F38}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
     <col min="3" max="3" width="50.1640625" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
@@ -602,6 +614,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1991</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advanced-fighting-fantasy/checklist.xlsx
+++ b/advanced-fighting-fantasy/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/advanced-fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C5A91C-F1E8-1A4E-B0F0-3277B07A1E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2619658-59CA-CC46-B2BC-2927DB41E231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CFF89FED-A798-6846-A7D7-293D358A7A43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>year</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>replay</t>
+  </si>
+  <si>
+    <t>タンタロンの立方体—アドバンスト・ファイティング・ファンタジー・シナリオ集</t>
+  </si>
+  <si>
+    <t>Tantalon Cube: Advanced Fighting Fantasy Scenario Collection</t>
+  </si>
+  <si>
+    <t>tantalon_cube.jpg</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE7055-EA3A-6447-9904-F0BACDCA9F38}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,6 +643,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1991</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
